--- a/Data/Solubility of Oxygen.xlsx
+++ b/Data/Solubility of Oxygen.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
